--- a/src/test/resources/excel/read_sample4.xlsx
+++ b/src/test/resources/excel/read_sample4.xlsx
@@ -20,9 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">30</t>
+    <t xml:space="preserve">数値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日付</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数式</t>
   </si>
 </sst>
 </file>
@@ -124,36 +136,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1013" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1014" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>30</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>43282</v>
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>25569</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <f aca="false">A1</f>
-        <v>30</v>
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <f aca="false">B2</f>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
